--- a/example/config/ai/ai.xlsx
+++ b/example/config/ai/ai.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code_mygithub\configgen\example\config\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23780E71-A9EB-4641-849C-B9BB0E17631A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0E29A0-FC96-4D38-AB9A-131BB03A5BBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="11925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="11925" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__CONFIG" sheetId="1" r:id="rId1"/>
     <sheet name="AI" sheetId="5" r:id="rId2"/>
     <sheet name="AI_CONDITION" sheetId="2" r:id="rId3"/>
     <sheet name="AI_ACTION" sheetId="4" r:id="rId4"/>
-    <sheet name="说明" sheetId="3" r:id="rId5"/>
+    <sheet name="AI_ACTION_1" sheetId="6" r:id="rId5"/>
+    <sheet name="说明" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">AI_ACTION!$C:$C</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="169">
   <si>
     <t>sheet</t>
   </si>
@@ -114,9 +115,6 @@
   </si>
   <si>
     <t>DeathRemove</t>
-  </si>
-  <si>
-    <t>__END</t>
   </si>
   <si>
     <t>触发公式</t>
@@ -1844,7 +1842,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1996,11 +1994,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2015,7 +2013,7 @@
     <col min="16" max="16" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -2023,22 +2021,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
         <v>23</v>
       </c>
@@ -2060,17 +2058,14 @@
       <c r="G2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -2079,18 +2074,18 @@
         <v>10000</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="34">
         <v>10012</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="34">
         <v>10012</v>
@@ -2108,12 +2103,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
         <v>10013</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>10013</v>
@@ -2131,12 +2126,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="34">
         <v>10015</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>10013</v>
@@ -2154,12 +2149,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="34">
         <v>10017</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>10012</v>
@@ -2177,12 +2172,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="34">
         <v>10018</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>10012</v>
@@ -2200,12 +2195,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="34">
         <v>10019</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>10012</v>
@@ -2223,12 +2218,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="34">
         <v>10020</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="34">
         <v>10013</v>
@@ -2246,12 +2241,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="34">
         <v>10021</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>10012</v>
@@ -2269,12 +2264,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1017001</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>1017001</v>
@@ -2292,12 +2287,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1017002</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>1017001</v>
@@ -2315,12 +2310,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1017003</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>1017001</v>
@@ -2338,12 +2333,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1017004</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>1017001</v>
@@ -2366,7 +2361,7 @@
         <v>1017005</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>1017001</v>
@@ -2389,7 +2384,7 @@
         <v>1017006</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>1017001</v>
@@ -2412,7 +2407,7 @@
         <v>1017007</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>1017007</v>
@@ -2435,7 +2430,7 @@
         <v>1018001</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>1018001</v>
@@ -2458,7 +2453,7 @@
         <v>1018002</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>1018001</v>
@@ -2481,7 +2476,7 @@
         <v>1018003</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>1018001</v>
@@ -2504,7 +2499,7 @@
         <v>1018004</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>1018001</v>
@@ -2527,7 +2522,7 @@
         <v>1018005</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="36">
         <v>1018001</v>
@@ -2550,7 +2545,7 @@
         <v>1018006</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="36">
         <v>1018001</v>
@@ -2573,7 +2568,7 @@
         <v>1030101</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>1018001</v>
@@ -2596,7 +2591,7 @@
         <v>1030102</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>1018001</v>
@@ -2619,7 +2614,7 @@
         <v>1030103</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>1018001</v>
@@ -2642,7 +2637,7 @@
         <v>1030104</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>1018001</v>
@@ -2665,7 +2660,7 @@
         <v>1030105</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="36">
         <v>1018001</v>
@@ -2688,7 +2683,7 @@
         <v>1030106</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="36">
         <v>1018001</v>
@@ -2711,7 +2706,7 @@
         <v>1071001</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>1018001</v>
@@ -2734,7 +2729,7 @@
         <v>1071002</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>1018001</v>
@@ -2757,7 +2752,7 @@
         <v>1071003</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>1018001</v>
@@ -2780,7 +2775,7 @@
         <v>1071004</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>1018001</v>
@@ -2803,7 +2798,7 @@
         <v>1071005</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="36">
         <v>1018001</v>
@@ -2826,7 +2821,7 @@
         <v>1071006</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" s="36">
         <v>1018001</v>
@@ -2849,7 +2844,7 @@
         <v>5003001</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="34">
         <v>10012</v>
@@ -2872,7 +2867,7 @@
         <v>5003002</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="34">
         <v>10013</v>
@@ -2895,7 +2890,7 @@
         <v>5003</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="34">
         <v>10012</v>
@@ -2918,7 +2913,7 @@
         <v>1030001</v>
       </c>
       <c r="B41" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="34">
         <v>10012</v>
@@ -2941,7 +2936,7 @@
         <v>1030002</v>
       </c>
       <c r="B42" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="34">
         <v>10013</v>
@@ -2984,7 +2979,7 @@
         <v>1068012</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="50">
         <v>10012</v>
@@ -3007,7 +3002,7 @@
         <v>2005001</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="34">
         <v>200501</v>
@@ -3030,7 +3025,7 @@
         <v>1020</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="34">
         <v>10012</v>
@@ -3053,7 +3048,7 @@
         <v>1071013</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="44">
         <v>10013</v>
@@ -3076,7 +3071,7 @@
         <v>1071014</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="44">
         <v>10013</v>
@@ -3099,7 +3094,7 @@
         <v>103011</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="45">
         <v>103011</v>
@@ -3122,7 +3117,7 @@
         <v>2080</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" s="32">
         <v>20801</v>
@@ -3145,7 +3140,7 @@
         <v>20017</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="32">
         <v>20017</v>
@@ -3168,7 +3163,7 @@
         <v>20020</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52">
         <v>20020</v>
@@ -3191,7 +3186,7 @@
         <v>20021</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53">
         <v>20021</v>
@@ -3234,7 +3229,7 @@
         <v>200201</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="34">
         <v>200201</v>
@@ -3312,13 +3307,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3333,7 +3328,7 @@
     <col min="16" max="16" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -3341,37 +3336,37 @@
         <v>3</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
         <v>23</v>
       </c>
@@ -3379,56 +3374,53 @@
         <v>24</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="F2" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="J2" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="K2" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="L2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -3440,12 +3432,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="34">
         <v>10012</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -3454,12 +3446,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
         <v>10013</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -3468,12 +3460,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1017001</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3482,12 +3474,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1017007</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3496,12 +3488,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1018001</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -3510,12 +3502,12 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="49">
         <v>5004001</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="49">
         <v>6</v>
@@ -3524,12 +3516,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="49">
         <v>5004002</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="49">
         <v>6</v>
@@ -3538,12 +3530,12 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="49">
         <v>5004003</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="49">
         <v>6</v>
@@ -3552,12 +3544,12 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="49">
         <v>5004004</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="49">
         <v>6</v>
@@ -3566,12 +3558,12 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="50">
         <v>200501</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="50">
         <v>6</v>
@@ -3580,12 +3572,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="52">
         <v>103011</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="52">
         <v>6</v>
@@ -3594,12 +3586,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="47">
         <v>20801</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="32">
         <v>6</v>
@@ -3613,7 +3605,7 @@
         <v>20017</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="32">
         <v>6</v>
@@ -3627,7 +3619,7 @@
         <v>20020</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="52">
         <v>3</v>
@@ -3641,7 +3633,7 @@
         <v>20021</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -3652,7 +3644,7 @@
         <v>200201</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -3676,10 +3668,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3694,7 +3686,7 @@
     <col min="16" max="16" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -3702,37 +3694,37 @@
         <v>3</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:12" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
         <v>23</v>
       </c>
@@ -3740,45 +3732,42 @@
         <v>24</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="F2" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="J2" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="K2" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="L2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3787,12 +3776,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -3804,12 +3793,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="34">
         <v>10012</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -3821,12 +3810,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
         <v>10013</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -3838,12 +3827,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="34">
         <v>10015</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -3855,12 +3844,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="34">
         <v>10017</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -3872,12 +3861,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="34">
         <v>10018</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -3886,12 +3875,12 @@
         <v>10022</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="34">
         <v>10021</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -3903,12 +3892,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1017001</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -3920,12 +3909,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1017002</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -3937,12 +3926,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1017003</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -3954,12 +3943,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1017004</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -3971,12 +3960,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1017005</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3988,12 +3977,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1017006</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -4010,7 +3999,7 @@
         <v>1017007</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4024,7 +4013,7 @@
         <v>1018001</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -4041,7 +4030,7 @@
         <v>1018002</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4058,7 +4047,7 @@
         <v>1018003</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4075,7 +4064,7 @@
         <v>1018004</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4092,7 +4081,7 @@
         <v>1018005</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -4109,7 +4098,7 @@
         <v>1018006</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4126,7 +4115,7 @@
         <v>1030001</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -4143,7 +4132,7 @@
         <v>1030002</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -4160,7 +4149,7 @@
         <v>1030003</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -4177,7 +4166,7 @@
         <v>1030004</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -4194,7 +4183,7 @@
         <v>1030005</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -4211,7 +4200,7 @@
         <v>1030006</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -4228,7 +4217,7 @@
         <v>1071001</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -4245,7 +4234,7 @@
         <v>1071002</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -4262,7 +4251,7 @@
         <v>1071003</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -4279,7 +4268,7 @@
         <v>1071004</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -4296,7 +4285,7 @@
         <v>1071005</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -4313,7 +4302,7 @@
         <v>1071006</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -4323,326 +4312,6 @@
       </c>
       <c r="E35">
         <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>10019</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>10019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>5003001</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>5003001</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>5003002</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>5003002</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>5003</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>5003005</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="34">
-        <v>1003001</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40" s="34">
-        <v>10024</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="34">
-        <v>1003002</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41" s="34">
-        <v>10026</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="31" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="31">
-        <v>5004001</v>
-      </c>
-      <c r="C42" s="31">
-        <v>2</v>
-      </c>
-      <c r="D42" s="31">
-        <v>5004001</v>
-      </c>
-      <c r="E42" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="34">
-        <v>10020</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" s="34">
-        <v>10033</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="39">
-        <v>1068001</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="39">
-        <v>2</v>
-      </c>
-      <c r="D44" s="39">
-        <v>1068001</v>
-      </c>
-      <c r="E44" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>200601</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>1017001</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="34">
-        <v>1020</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46" s="34">
-        <v>102003</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="42">
-        <v>1071013</v>
-      </c>
-      <c r="B47" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="44">
-        <v>2</v>
-      </c>
-      <c r="D47" s="42">
-        <v>1071113</v>
-      </c>
-      <c r="E47" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A48" s="42">
-        <v>1071014</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="44">
-        <v>2</v>
-      </c>
-      <c r="D48" s="42">
-        <v>1071114</v>
-      </c>
-      <c r="E48" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="45">
-        <v>103011</v>
-      </c>
-      <c r="B49" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="45">
-        <v>1</v>
-      </c>
-      <c r="D49" s="45">
-        <v>800111</v>
-      </c>
-      <c r="E49" s="45"/>
-    </row>
-    <row r="50" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="47">
-        <v>20801</v>
-      </c>
-      <c r="B50" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="32">
-        <v>2</v>
-      </c>
-      <c r="D50" s="47">
-        <v>20080</v>
-      </c>
-      <c r="E50" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="47">
-        <v>20017</v>
-      </c>
-      <c r="B51" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="32">
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <v>2001721</v>
-      </c>
-      <c r="E51" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>20020</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>20020</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>20021</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53" s="34">
-        <v>2001722</v>
-      </c>
-      <c r="E53" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>20002</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" s="34">
-        <v>20002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="34">
-        <v>200201</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" s="34">
-        <v>20020</v>
       </c>
     </row>
   </sheetData>
@@ -4659,78 +4328,29 @@
   <conditionalFormatting sqref="D10">
     <cfRule type="duplicateValues" dxfId="25" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="duplicateValues" dxfId="9" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A9">
-    <cfRule type="duplicateValues" dxfId="8" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A29">
-    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:A35">
-    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="duplicateValues" dxfId="5" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D9">
-    <cfRule type="duplicateValues" dxfId="4" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D35">
-    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53:E53 D54">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4738,6 +4358,489 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3187618C-39A7-471A-A619-12F0212C2728}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>10019</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>10019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>5003001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5003001</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5003002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5003002</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5003</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5003005</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="34">
+        <v>1003001</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="34">
+        <v>10024</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="34">
+        <v>1003002</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="34">
+        <v>10026</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="31">
+        <v>5004001</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31">
+        <v>2</v>
+      </c>
+      <c r="D9" s="31">
+        <v>5004001</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="34">
+        <v>10020</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="34">
+        <v>10033</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="39">
+        <v>1068001</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="39">
+        <v>2</v>
+      </c>
+      <c r="D11" s="39">
+        <v>1068001</v>
+      </c>
+      <c r="E11" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>200601</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1017001</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="34">
+        <v>1020</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="34">
+        <v>102003</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" s="42">
+        <v>1071013</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="44">
+        <v>2</v>
+      </c>
+      <c r="D14" s="42">
+        <v>1071113</v>
+      </c>
+      <c r="E14" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A15" s="42">
+        <v>1071014</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="44">
+        <v>2</v>
+      </c>
+      <c r="D15" s="42">
+        <v>1071114</v>
+      </c>
+      <c r="E15" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="45">
+        <v>103011</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="45">
+        <v>1</v>
+      </c>
+      <c r="D16" s="45">
+        <v>800111</v>
+      </c>
+      <c r="E16" s="45"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="47">
+        <v>20801</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="32">
+        <v>2</v>
+      </c>
+      <c r="D17" s="47">
+        <v>20080</v>
+      </c>
+      <c r="E17" s="32">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="47">
+        <v>20017</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="32">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2001721</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>20020</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>20020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>20021</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="34">
+        <v>2001722</v>
+      </c>
+      <c r="E20" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20002</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="34">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="34">
+        <v>200201</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="34">
+        <v>20020</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="16" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="duplicateValues" dxfId="15" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="14" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="12" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="duplicateValues" dxfId="11" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="10" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E20 D21">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -4754,21 +4857,21 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
@@ -4779,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="13"/>
@@ -4790,10 +4893,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4802,16 +4905,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4820,10 +4923,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="E6" s="13"/>
     </row>
@@ -4833,10 +4936,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="13"/>
     </row>
@@ -4853,10 +4956,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>151</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>152</v>
       </c>
       <c r="E9" s="20"/>
     </row>
@@ -4866,14 +4969,14 @@
         <v>8</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
@@ -4886,31 +4989,31 @@
         <v>2</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>156</v>
       </c>
       <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="C13" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>157</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>159</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4919,16 +5022,16 @@
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4937,10 +5040,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="3" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4949,13 +5052,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E18" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4964,10 +5067,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4984,18 +5087,18 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22">
         <v>-1</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C23" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
